--- a/resultx.xlsx
+++ b/resultx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="84">
   <si>
     <t>stock_number</t>
   </si>
@@ -31,9 +31,15 @@
     <t>arrival_date</t>
   </si>
   <si>
+    <t>incoming_type</t>
+  </si>
+  <si>
     <t>stock_status</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
@@ -88,6 +94,120 @@
     <t>Q</t>
   </si>
   <si>
+    <t>02.01.2023</t>
+  </si>
+  <si>
+    <t>02.04.2023</t>
+  </si>
+  <si>
+    <t>02.07.2023</t>
+  </si>
+  <si>
+    <t>24.03.2023</t>
+  </si>
+  <si>
+    <t>13.02.2023</t>
+  </si>
+  <si>
+    <t>16.02.2023</t>
+  </si>
+  <si>
+    <t>22.02.2023</t>
+  </si>
+  <si>
+    <t>28.02.2023</t>
+  </si>
+  <si>
+    <t>03.03.2023</t>
+  </si>
+  <si>
+    <t>03.06.2023</t>
+  </si>
+  <si>
+    <t>02.10.2023</t>
+  </si>
+  <si>
+    <t>19.02.2023</t>
+  </si>
+  <si>
+    <t>27.03.2023</t>
+  </si>
+  <si>
+    <t>30.03.2023</t>
+  </si>
+  <si>
+    <t>04.02.2023</t>
+  </si>
+  <si>
+    <t>04.08.2023</t>
+  </si>
+  <si>
+    <t>02.02.2023</t>
+  </si>
+  <si>
+    <t>02.03.2023</t>
+  </si>
+  <si>
+    <t>02.05.2023</t>
+  </si>
+  <si>
+    <t>02.06.2023</t>
+  </si>
+  <si>
+    <t>02.08.2023</t>
+  </si>
+  <si>
+    <t>02.09.2023</t>
+  </si>
+  <si>
+    <t>02.11.2023</t>
+  </si>
+  <si>
+    <t>02.12.2023</t>
+  </si>
+  <si>
+    <t>14.02.2023</t>
+  </si>
+  <si>
+    <t>15.02.2023</t>
+  </si>
+  <si>
+    <t>17.02.2023</t>
+  </si>
+  <si>
+    <t>18.02.2023</t>
+  </si>
+  <si>
+    <t>20.02.2023</t>
+  </si>
+  <si>
+    <t>21.02.2023</t>
+  </si>
+  <si>
+    <t>23.02.2023</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>QMprt</t>
+  </si>
+  <si>
+    <t>ProdOrd</t>
+  </si>
+  <si>
+    <t>PlnOrd</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>ProjecS</t>
+  </si>
+  <si>
     <t>2 each short</t>
   </si>
   <si>
@@ -104,15 +224,54 @@
   </si>
   <si>
     <t>9 each short</t>
+  </si>
+  <si>
+    <t>SAS a bagli 02.01.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>SAT durumunda</t>
+  </si>
+  <si>
+    <t>Kalitede</t>
+  </si>
+  <si>
+    <t>Uretim Siparisinde 02.04.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>uretim siparisi veya sat yaratilmasi gerekli</t>
+  </si>
+  <si>
+    <t>SAS a bagli 02.06.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>Uretim Siparisinde 02.09.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>SAS a bagli 02.11.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>Uretim Siparisinde 14.02.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>SAS a bagli 16.02.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>Uretim Siparisinde 19.02.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>anonim stokta</t>
+  </si>
+  <si>
+    <t>SAS a bagli 23.02.2023 tarihinde gelmesi bekleniyor</t>
+  </si>
+  <si>
+    <t>stokta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +324,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,423 +648,585 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44928</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-3</v>
       </c>
-      <c r="D3" s="2">
-        <v>45018</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44959</v>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-5</v>
       </c>
-      <c r="D4" s="2">
-        <v>45109</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44987</v>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45009</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-9</v>
       </c>
-      <c r="D6" s="2">
-        <v>44970</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45048</v>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-1</v>
       </c>
-      <c r="D7" s="2">
-        <v>44973</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45079</v>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>-3</v>
       </c>
-      <c r="D8" s="2">
-        <v>45009</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45109</v>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>-5</v>
       </c>
-      <c r="D9" s="2">
-        <v>44979</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45140</v>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>-7</v>
       </c>
-      <c r="D10" s="2">
-        <v>45009</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45171</v>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>-9</v>
       </c>
-      <c r="D11" s="2">
-        <v>44985</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45201</v>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44988</v>
-      </c>
-      <c r="E12" s="2">
-        <v>45232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>-3</v>
       </c>
-      <c r="D13" s="2">
-        <v>45080</v>
-      </c>
-      <c r="E13" s="2">
-        <v>45262</v>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>-5</v>
       </c>
-      <c r="D14" s="2">
-        <v>45109</v>
-      </c>
-      <c r="E14" s="2">
-        <v>44970</v>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>-7</v>
       </c>
-      <c r="D15" s="2">
-        <v>45201</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44971</v>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>-9</v>
       </c>
-      <c r="D16" s="2">
-        <v>44970</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44972</v>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>-1</v>
       </c>
-      <c r="D17" s="2">
-        <v>44973</v>
-      </c>
-      <c r="E17" s="2">
-        <v>44973</v>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>-3</v>
       </c>
-      <c r="D18" s="2">
-        <v>44976</v>
-      </c>
-      <c r="E18" s="2">
-        <v>44974</v>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>-5</v>
       </c>
-      <c r="D19" s="2">
-        <v>45009</v>
-      </c>
-      <c r="E19" s="2">
-        <v>44975</v>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>-7</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2">
-        <v>45012</v>
-      </c>
-      <c r="E20" s="2">
-        <v>44976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>-9</v>
       </c>
-      <c r="D21" s="2">
-        <v>45015</v>
-      </c>
-      <c r="E21" s="2">
-        <v>44977</v>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>-3</v>
       </c>
-      <c r="D22" s="2">
-        <v>44961</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44978</v>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>-5</v>
       </c>
-      <c r="D23" s="2">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>-7</v>
       </c>
-      <c r="D24" s="2">
-        <v>45142</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44980</v>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>-3</v>
       </c>
-      <c r="D25" s="2">
-        <v>44973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>-200</v>
       </c>
-      <c r="D26" s="2">
-        <v>44973</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>-1</v>
       </c>
-      <c r="D27" s="2">
-        <v>44973</v>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
